--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27563.47058748348</v>
+        <v>5485130.646909211</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27563.47058748348</v>
+        <v>5485130.646909211</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146254.8687909696</v>
+        <v>14171866.09534625</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146254.8687909696</v>
+        <v>14171866.09534625</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342098092.32133</v>
+        <v>45969014.81642681</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15926.38914269845</v>
+        <v>1336987.119067674</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29524.23553407538</v>
+        <v>2281928.709353947</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43183.46175327686</v>
+        <v>3226870.299640221</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56859.66341213776</v>
+        <v>4170978.098865524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70535.86507099864</v>
+        <v>5115085.898090829</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84212.06672985954</v>
+        <v>6059193.697316133</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97881.86842927779</v>
+        <v>7007799.103540034</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111545.0180074839</v>
+        <v>7955080.737642719</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125586.2736080422</v>
+        <v>8372009.388736142</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140411.5292086005</v>
+        <v>8944954.039829563</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155236.7848091588</v>
+        <v>9517898.690922987</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170062.040409717</v>
+        <v>10090843.34201641</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184887.2960102753</v>
+        <v>10663787.99310983</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199712.5516108337</v>
+        <v>11236732.64420325</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214530.7204239149</v>
+        <v>11805200.04977546</v>
       </c>
     </row>
   </sheetData>
